--- a/UIDP.WebAPI/ExcelModel/组织机构.xlsx
+++ b/UIDP.WebAPI/ExcelModel/组织机构.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{583B2352-05DC-4C41-949A-54593C1E777B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FAEC1C6-6731-4083-BF4F-6125DC443862}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UIDP.WebAPI/ExcelModel/组织机构.xlsx
+++ b/UIDP.WebAPI/ExcelModel/组织机构.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FAEC1C6-6731-4083-BF4F-6125DC443862}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A4C5C4-42F6-4745-888B-978751990F67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,27 +22,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>组织机构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级组织机构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织机构简称</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织机构简称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否有效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织机构名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织机构编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上级组织机构编码</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +180,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,12 +229,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,45 +539,47 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UIDP.WebAPI/ExcelModel/组织机构.xlsx
+++ b/UIDP.WebAPI/ExcelModel/组织机构.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A4C5C4-42F6-4745-888B-978751990F67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAE5686-F33D-4DE4-9CCC-7FD999521EA4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -40,7 +39,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -48,14 +46,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>组织机构简称</t>
+      <t>上级组织机构编码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -67,7 +64,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -75,14 +71,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否有效</t>
+      <t>组织机构名称</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -94,7 +89,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -102,14 +96,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>组织机构名称</t>
+      <t>组织机构简称</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -121,7 +114,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -136,7 +128,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -148,7 +139,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -156,7 +146,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>上级组织机构编码</t>
+      <t>是否有效</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,15 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -198,7 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -207,21 +187,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -229,33 +203,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,46 +490,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{80BE6453-0826-4786-A765-B7B25C0D79E8}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UIDP.WebAPI/ExcelModel/组织机构.xlsx
+++ b/UIDP.WebAPI/ExcelModel/组织机构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAE5686-F33D-4DE4-9CCC-7FD999521EA4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A79D2-F110-4E91-B5E3-96D750A3F0DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,128 +26,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上级组织机构编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组织机构名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组织机构简称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组织机构编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否有效</t>
-    </r>
+    <t>上级组织机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +60,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -209,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,14 +380,16 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
